--- a/Egnyte approver.xlsx
+++ b/Egnyte approver.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Job #</t>
   </si>
@@ -42,15 +42,53 @@
   </si>
   <si>
     <t>Jon Seigal</t>
+  </si>
+  <si>
+    <t>350 West 31st  ST</t>
+  </si>
+  <si>
+    <t>Peter Amabile Jr.</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Phone acces international</t>
+  </si>
+  <si>
+    <t>Egnyte</t>
+  </si>
+  <si>
+    <t>Russ Flaum</t>
+  </si>
+  <si>
+    <t>Riverside Bldg 5</t>
+  </si>
+  <si>
+    <t>Phone replacement request</t>
+  </si>
+  <si>
+    <t>All Contracts on  Q drive</t>
+  </si>
+  <si>
+    <t>Michael gress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -77,8 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,43 +398,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>